--- a/biology/Zoologie/Anomala/Anomala.xlsx
+++ b/biology/Zoologie/Anomala/Anomala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magniscarabaeus
 Anomala est un genre d'insectes coléoptères de la famille des Scarabaeidae, de la sous-famille des Rutelinae.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Anomala est décrit par l'entomologiste britannique George Samouelle (~1790-1846) en 1819[1],[2].
-Synonymes
-Ce genre a un synonyme : Magniscarabaeus Hong, 1984[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Anomala est décrit par l'entomologiste britannique George Samouelle (~1790-1846) en 1819,.
 </t>
         </is>
       </c>
@@ -542,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adultes
-Les espèces appartenant au genre Anomala sont de forme ovale et, en général, leurs dimensions ne dépassent pas 15-20 mm. La tête est de taille moyenne et possède deux antennes courtes. Le thorax est de taille moyenne et les pattes y sont attachées, qui sont de longueur moyenne et permettent une prise solide sur les troncs ou les tiges, et les muscles des ailes ; la présence de pubescence est indicative de l'espèce. Le pronotum, partie dorsale au-dessus du thorax, a une coloration qui, comme la coloration des élytres, varie selon les espèces. Enfin, l'abdomen n'est pas couvert de poils et constitue la plus grande partie de l'insecte.
-Larves
-Les larves ressemblent à de gros vers en forme de C. Les pattes sont sclérifiées, presque atrophiées pour faciliter le déplacement de l'insecte dans le sol. La tête est de la même couleur que les pattes et possède une paire de mâchoires puissantes qui servent à écraser les racines des plantes. Sur tout le corps (qui a une coloration blanchâtre) sur les côtés les larves ont des trous chitineux qui constituent le système respiratoire. L'abdomen contient le tube digestif, peut-être le plus grand organe, qui est, tout au long de la période larvaire, toujours rempli de grandes quantités de nourriture.
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a un synonyme : Magniscarabaeus Hong, 1984.
 </t>
         </is>
       </c>
@@ -576,15 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-L'habitat des espèces appartenant au genre Anomala varie selon les espèces, tout comme la période d'apparition. Il existe également des espèces, comme Anomala dubia, qui volent aux heures les plus chaudes de la journée[3] d'autres qui volent au crépuscule, comme Anomala ausonia[4]. Généralement, les adultes se nourrissent des feuilles et des tiges des plantes.
-Importance agricole
-Un comportement qui les unit est que la plupart des larves de ces espèces se nourrissent de racines d'herbe, devenant un parasite dans de nombreuses zones où elles s'installent. Une espèce notable est Anomala orientalis, qui a été introduite en Amérique du Nord et est depuis devenue un ravageur majeur dans plusieurs États du centre de l'Atlantique. Dans de nombreuses régions à vocation viticole, Anomala vitis devient intéressant, car il représente une adversité mineure de la vigne, et toute tactique de contraste et/ou de confinement qui la concerne. Cependant, les dégâts sont limités car le nombre de ces insectes n'est pas très élevé.
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces appartenant au genre Anomala sont de forme ovale et, en général, leurs dimensions ne dépassent pas 15-20 mm. La tête est de taille moyenne et possède deux antennes courtes. Le thorax est de taille moyenne et les pattes y sont attachées, qui sont de longueur moyenne et permettent une prise solide sur les troncs ou les tiges, et les muscles des ailes ; la présence de pubescence est indicative de l'espèce. Le pronotum, partie dorsale au-dessus du thorax, a une coloration qui, comme la coloration des élytres, varie selon les espèces. Enfin, l'abdomen n'est pas couvert de poils et constitue la plus grande partie de l'insecte.
 </t>
         </is>
       </c>
@@ -610,10 +628,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Larves</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves ressemblent à de gros vers en forme de C. Les pattes sont sclérifiées, presque atrophiées pour faciliter le déplacement de l'insecte dans le sol. La tête est de la même couleur que les pattes et possède une paire de mâchoires puissantes qui servent à écraser les racines des plantes. Sur tout le corps (qui a une coloration blanchâtre) sur les côtés les larves ont des trous chitineux qui constituent le système respiratoire. L'abdomen contient le tube digestif, peut-être le plus grand organe, qui est, tout au long de la période larvaire, toujours rempli de grandes quantités de nourriture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anomala</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anomala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat des espèces appartenant au genre Anomala varie selon les espèces, tout comme la période d'apparition. Il existe également des espèces, comme Anomala dubia, qui volent aux heures les plus chaudes de la journée d'autres qui volent au crépuscule, comme Anomala ausonia. Généralement, les adultes se nourrissent des feuilles et des tiges des plantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anomala</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anomala</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Importance agricole</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un comportement qui les unit est que la plupart des larves de ces espèces se nourrissent de racines d'herbe, devenant un parasite dans de nombreuses zones où elles s'installent. Une espèce notable est Anomala orientalis, qui a été introduite en Amérique du Nord et est depuis devenue un ravageur majeur dans plusieurs États du centre de l'Atlantique. Dans de nombreuses régions à vocation viticole, Anomala vitis devient intéressant, car il représente une adversité mineure de la vigne, et toute tactique de contraste et/ou de confinement qui la concerne. Cependant, les dégâts sont limités car le nombre de ces insectes n'est pas très élevé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anomala</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anomala</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des espèces européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Anomala ausonia Erichson 1847
 Anomala devota (Rossius 1790)
@@ -629,33 +760,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Anomala</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anomala</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 sept. 2013)[5] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 sept. 2013) :
 Liste des espèces vivantes Anomala selon NCBI
 Anomala albopilosa
 sous-espèce Anomala albopilosa albopilosa
@@ -697,38 +830,40 @@
 Anomala variegata
 Anomala vulcanicola
 Anomala xanthoptera
-Selon World Register of Marine Species                               (25 sept. 2013)[6] :
+Selon World Register of Marine Species                               (25 sept. 2013) :
 Anomala dubia Scap</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Anomala</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anomala</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 sept. 2013)[7] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 sept. 2013) :
 Liste des espèces vivantes Anomala selon CatalogueofLife
 Anomala abraensis
 Anomala achrogastra
@@ -1932,38 +2067,40 @@
 Anomala zapotensis
 Anomala zavattarii
 Anomala zerekoreensis
-Selon ITIS      (25 sept. 2013)[8] :
+Selon ITIS      (25 sept. 2013) :
 Anomala orientalis (Waterhouse, 1875)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Anomala</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anomala</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de dix-neuf[1] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de dix-neuf :
 †Anomala amblobelia, Zhang 1989
 †Anomala brachytarsia, Zhang et al. 1994
 †Anomala endoxa, Zhang et al. 1994
@@ -1982,7 +2119,7 @@
 †Anomala synemosyna, Zhang 1989
 †Anomala thetis, von Heyden and von Heyden 1866
 †Anomala tumulata, von Heyden and von Heyden 1866
-†Anomala ursa, Zhang et al. 1994[1]
+†Anomala ursa, Zhang et al. 1994
 </t>
         </is>
       </c>
